--- a/data/trans_dic/P36B06_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6800907089827433</v>
+        <v>0.6791662199840228</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7560446101663</v>
+        <v>0.7578020826705562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7711037728522022</v>
+        <v>0.7712271858305134</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7972570460884588</v>
+        <v>0.7999523175168377</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8136371545752512</v>
+        <v>0.8161710896847704</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8228448585356425</v>
+        <v>0.8219746885317064</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7606147007151384</v>
+        <v>0.759741108799293</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7944492856769254</v>
+        <v>0.7926810151235121</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8025984799596908</v>
+        <v>0.8041023633884876</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7566653520833208</v>
+        <v>0.7535659963453587</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8071543691363532</v>
+        <v>0.8084240647490508</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8212595708549547</v>
+        <v>0.8209515820292729</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8464428653685305</v>
+        <v>0.8516888029463031</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8602236232031103</v>
+        <v>0.8593845471758028</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8646059955114004</v>
+        <v>0.8619669527774122</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8042675686897997</v>
+        <v>0.8037443459368999</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8289267703336649</v>
+        <v>0.8296976676553205</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8356413158420225</v>
+        <v>0.83596015995075</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7242203911851433</v>
+        <v>0.7253848268283702</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8162058103369667</v>
+        <v>0.819387020718949</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7784986527601143</v>
+        <v>0.7846015041922588</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7876760089217876</v>
+        <v>0.7882921360541769</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8453548093448697</v>
+        <v>0.849487528953018</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8043083141797465</v>
+        <v>0.8013556314258641</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7647321352507731</v>
+        <v>0.7666936672642661</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8406248685513886</v>
+        <v>0.8407135451599531</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8050016086746585</v>
+        <v>0.8039052908066898</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.780709329252256</v>
+        <v>0.7819156903651585</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8648192313630023</v>
+        <v>0.8666901987906767</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8369265239969857</v>
+        <v>0.8377034051399783</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8354985337899897</v>
+        <v>0.8349153784195049</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.888596482897181</v>
+        <v>0.8926536617168964</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8510666950448472</v>
+        <v>0.8496474375770371</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8005529816331007</v>
+        <v>0.8020786964735408</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8720896127872378</v>
+        <v>0.8720493360163898</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8389479563288945</v>
+        <v>0.8388711660666968</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7517749529610103</v>
+        <v>0.7535368379832084</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8396876734550436</v>
+        <v>0.8398414331333327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7634760667664496</v>
+        <v>0.7681798766257982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7968034457496035</v>
+        <v>0.7976951326511805</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8882629899142845</v>
+        <v>0.8880471151583126</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7889985846112463</v>
+        <v>0.7917018836107925</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7816112116883833</v>
+        <v>0.7815041463447777</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8712140049103635</v>
+        <v>0.8683987852557778</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.78586118760817</v>
+        <v>0.7880779399080338</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8032529388970943</v>
+        <v>0.8061518078248892</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8861657015568019</v>
+        <v>0.8854467890466591</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8241276693437958</v>
+        <v>0.8271185074277424</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8470233490018715</v>
+        <v>0.8450003481424589</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9278438623446309</v>
+        <v>0.9264541457134337</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8454444983327032</v>
+        <v>0.848555230160134</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8164780334134136</v>
+        <v>0.8152611043860338</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9006196177191081</v>
+        <v>0.9003015470501783</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8278189803733265</v>
+        <v>0.8285155975172618</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7538791056542313</v>
+        <v>0.7564428543989727</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8364510112191635</v>
+        <v>0.8365449905952315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7495815764689004</v>
+        <v>0.751254883213203</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7418681685852547</v>
+        <v>0.7476948143433888</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8986875952276356</v>
+        <v>0.8980790666339125</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8047298657047799</v>
+        <v>0.8041294484685054</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7641166728509909</v>
+        <v>0.7628278677893973</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8762509802327634</v>
+        <v>0.875942189633827</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7888155279224084</v>
+        <v>0.7915871631364644</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8324252586620992</v>
+        <v>0.8322442146579137</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.897384543213084</v>
+        <v>0.8977147634621405</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8244796503024187</v>
+        <v>0.8228013950658464</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8286119723798407</v>
+        <v>0.8300749167017811</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.948117143394109</v>
+        <v>0.9485027343014566</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8745181023658577</v>
+        <v>0.8712826555527016</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8202053042320402</v>
+        <v>0.8202579288395319</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9158739876087238</v>
+        <v>0.9146286018872811</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8379059971174843</v>
+        <v>0.8396377830416909</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7489541146092548</v>
+        <v>0.7480548329543196</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8206791718542387</v>
+        <v>0.8218286750878346</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7864250689898459</v>
+        <v>0.784444192009276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8030971470507896</v>
+        <v>0.8038476114686324</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.865649314304349</v>
+        <v>0.8651294434417092</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8213113987525974</v>
+        <v>0.8207144366605403</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7802903566163905</v>
+        <v>0.7797725088810521</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.847816289009299</v>
+        <v>0.8474980844615611</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8077896194419366</v>
+        <v>0.8078880374317277</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7788952201982542</v>
+        <v>0.7774995116220492</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8465166012789695</v>
+        <v>0.8462970206252995</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.814125752865799</v>
+        <v>0.8120026833369743</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8299987410828032</v>
+        <v>0.8292730896706145</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8877457692581698</v>
+        <v>0.8886148177183314</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8469270165867392</v>
+        <v>0.8461698689030862</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8003491690298273</v>
+        <v>0.7996780904464795</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8644466974218095</v>
+        <v>0.8643533546058438</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8262060035975456</v>
+        <v>0.8263939000963659</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>397269</v>
+        <v>396729</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>787688</v>
+        <v>789519</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>866137</v>
+        <v>866276</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>734558</v>
+        <v>737042</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>910257</v>
+        <v>913091</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1036423</v>
+        <v>1035327</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1145105</v>
+        <v>1143789</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1716491</v>
+        <v>1712671</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1912435</v>
+        <v>1916018</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>441999</v>
+        <v>440189</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>840937</v>
+        <v>842260</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>922474</v>
+        <v>922128</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>779876</v>
+        <v>784709</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>962375</v>
+        <v>961436</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1089024</v>
+        <v>1085700</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1210824</v>
+        <v>1210036</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1790983</v>
+        <v>1792649</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1991169</v>
+        <v>1991929</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>779307</v>
+        <v>780560</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>796691</v>
+        <v>799796</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>706751</v>
+        <v>712291</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>832997</v>
+        <v>833649</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>924112</v>
+        <v>928630</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>808702</v>
+        <v>805733</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1631634</v>
+        <v>1635819</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1739467</v>
+        <v>1739651</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1540210</v>
+        <v>1538113</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>840093</v>
+        <v>841391</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>844142</v>
+        <v>845969</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>759794</v>
+        <v>760499</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>883571</v>
+        <v>882955</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>971383</v>
+        <v>975818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>855716</v>
+        <v>854289</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1708061</v>
+        <v>1711317</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1804576</v>
+        <v>1804492</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1605160</v>
+        <v>1605013</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>843186</v>
+        <v>845162</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>742415</v>
+        <v>742551</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>628920</v>
+        <v>632795</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>791130</v>
+        <v>792016</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>777061</v>
+        <v>776872</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>607513</v>
+        <v>609595</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1652697</v>
+        <v>1652470</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1532436</v>
+        <v>1527484</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1252458</v>
+        <v>1255991</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>900924</v>
+        <v>904175</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>783509</v>
+        <v>782873</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>678883</v>
+        <v>681346</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>840993</v>
+        <v>838984</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>811687</v>
+        <v>810471</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>650975</v>
+        <v>653371</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1726422</v>
+        <v>1723848</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1584159</v>
+        <v>1583600</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1319327</v>
+        <v>1320438</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>337135</v>
+        <v>338281</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>419883</v>
+        <v>419931</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>379020</v>
+        <v>379866</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>253094</v>
+        <v>255082</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>403205</v>
+        <v>402932</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>392378</v>
+        <v>392085</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>602397</v>
+        <v>601381</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>833001</v>
+        <v>832707</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>783476</v>
+        <v>786229</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>372261</v>
+        <v>372180</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>450471</v>
+        <v>450637</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>416892</v>
+        <v>416043</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>282688</v>
+        <v>283187</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>425382</v>
+        <v>425555</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>426406</v>
+        <v>424829</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>646615</v>
+        <v>646657</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>870668</v>
+        <v>869484</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>832234</v>
+        <v>833954</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2418372</v>
+        <v>2415468</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2793660</v>
+        <v>2797573</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2642767</v>
+        <v>2636111</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2660607</v>
+        <v>2663093</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3060404</v>
+        <v>3058566</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2893146</v>
+        <v>2891043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5104606</v>
+        <v>5101219</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5883394</v>
+        <v>5881186</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5560077</v>
+        <v>5560755</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2515052</v>
+        <v>2510545</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2881613</v>
+        <v>2880865</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2735855</v>
+        <v>2728720</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2749730</v>
+        <v>2747326</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3138523</v>
+        <v>3141595</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2983379</v>
+        <v>2980712</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5235830</v>
+        <v>5231440</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5998800</v>
+        <v>5998152</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5686839</v>
+        <v>5688132</v>
       </c>
     </row>
     <row r="24">
